--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>678698.9330976978</v>
+        <v>676116.9668453075</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>4.374061842362002</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>227.6293098132534</v>
+        <v>12.28773869504417</v>
       </c>
       <c r="H2" t="n">
-        <v>161.785162272574</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.409446242869617</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>169.0497557819081</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>251.8428459609372</v>
       </c>
       <c r="I5" t="n">
-        <v>54.88874011857234</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>84.26956906647443</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>86.77077224874616</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>141.1728200740689</v>
+        <v>3.466637186479406</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>7.012521412602892</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>1.317115919100156</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.391515483393</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>356.5845196044206</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8432760127576</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119253</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>133.3263257251778</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>41.69085152457907</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986293</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>80.33989744908797</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699795</v>
       </c>
       <c r="H22" t="n">
-        <v>28.87857325624057</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104.4564809702499</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>67.43549003635178</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
-        <v>125.4250331806699</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756242</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>54.29785174158872</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.56584948763671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>141.383131826302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>80.5697888787481</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4310,16 +4310,16 @@
         <v>837.8815602721133</v>
       </c>
       <c r="D2" t="n">
-        <v>837.8815602721133</v>
+        <v>479.6158616653628</v>
       </c>
       <c r="E2" t="n">
-        <v>452.0933076738691</v>
+        <v>475.1976173801487</v>
       </c>
       <c r="F2" t="n">
-        <v>445.1478069246656</v>
+        <v>64.21171259054111</v>
       </c>
       <c r="G2" t="n">
-        <v>215.2192111537026</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
         <v>51.79985532281972</v>
@@ -4328,28 +4328,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>125.8997233870222</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974718</v>
+        <v>287.6947354520161</v>
       </c>
       <c r="L2" t="n">
-        <v>1005.745511445274</v>
+        <v>882.0065235799409</v>
       </c>
       <c r="M2" t="n">
-        <v>1301.816078002877</v>
+        <v>1178.077090137542</v>
       </c>
       <c r="N2" t="n">
-        <v>1607.291184238462</v>
+        <v>1483.552196373125</v>
       </c>
       <c r="O2" t="n">
-        <v>2248.314393858356</v>
+        <v>1758.668415689757</v>
       </c>
       <c r="P2" t="n">
-        <v>2448.618721147459</v>
+        <v>2277.553464068627</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466515</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4389,55 +4389,55 @@
         <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884146</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093843</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>1000.641447200245</v>
+        <v>794.7800573025152</v>
       </c>
       <c r="M3" t="n">
-        <v>1264.580978695732</v>
+        <v>1435.803266922409</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315626</v>
+        <v>1721.137137355741</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>2037.107513972039</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2524.714615879286</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
         <v>2023.106809259863</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.3916432493207</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C4" t="n">
-        <v>370.4554603214139</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
-        <v>370.4554603214139</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>367.0115752276062</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4486,52 +4486,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018416</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1193.542248702562</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>991.0700018628636</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>766.6588426383016</v>
       </c>
       <c r="U4" t="n">
-        <v>1022.065682353225</v>
+        <v>595.9015135656672</v>
       </c>
       <c r="V4" t="n">
-        <v>767.3811941473381</v>
+        <v>341.2170253597803</v>
       </c>
       <c r="W4" t="n">
-        <v>767.3811941473381</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="X4" t="n">
-        <v>539.3916432493207</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="Y4" t="n">
-        <v>539.3916432493207</v>
+        <v>51.79985532281972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>933.910773749237</v>
+        <v>1472.867862168742</v>
       </c>
       <c r="C5" t="n">
-        <v>933.910773749237</v>
+        <v>1472.867862168742</v>
       </c>
       <c r="D5" t="n">
-        <v>933.910773749237</v>
+        <v>1114.602163561991</v>
       </c>
       <c r="E5" t="n">
-        <v>933.910773749237</v>
+        <v>728.813910963747</v>
       </c>
       <c r="F5" t="n">
-        <v>522.9248689596295</v>
+        <v>721.8684102145436</v>
       </c>
       <c r="G5" t="n">
-        <v>107.2430271597615</v>
+        <v>306.1865684146755</v>
       </c>
       <c r="H5" t="n">
-        <v>107.2430271597615</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539971</v>
@@ -4583,7 +4583,7 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2381.347406599813</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.347406599813</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="V5" t="n">
-        <v>2050.284519256243</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.515863986129</v>
+        <v>1859.467702232864</v>
       </c>
       <c r="X5" t="n">
-        <v>1324.050105725049</v>
+        <v>1859.467702232864</v>
       </c>
       <c r="Y5" t="n">
-        <v>933.910773749237</v>
+        <v>1859.467702232864</v>
       </c>
     </row>
     <row r="6">
@@ -4650,13 +4650,13 @@
         <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421434</v>
+        <v>942.9699568457228</v>
       </c>
       <c r="M6" t="n">
-        <v>965.5645858344687</v>
+        <v>1309.275846338048</v>
       </c>
       <c r="N6" t="n">
-        <v>1606.587795454363</v>
+        <v>1699.685407663791</v>
       </c>
       <c r="O6" t="n">
         <v>2195.735752851538</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>472.2121122790439</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C7" t="n">
-        <v>472.2121122790439</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D7" t="n">
-        <v>472.2121122790439</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E7" t="n">
-        <v>472.2121122790439</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3221647811336</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4750,25 +4750,25 @@
         <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1459.741531076081</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T7" t="n">
-        <v>1236.806956618062</v>
+        <v>1260.765397221169</v>
       </c>
       <c r="U7" t="n">
-        <v>947.6891796284609</v>
+        <v>971.6476202315675</v>
       </c>
       <c r="V7" t="n">
-        <v>693.0046914225741</v>
+        <v>971.6476202315675</v>
       </c>
       <c r="W7" t="n">
-        <v>693.0046914225741</v>
+        <v>682.2304501946069</v>
       </c>
       <c r="X7" t="n">
-        <v>693.0046914225741</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="Y7" t="n">
-        <v>472.2121122790439</v>
+        <v>233.4483201530594</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1136.517429052843</v>
+        <v>1698.708841600123</v>
       </c>
       <c r="C8" t="n">
-        <v>1136.517429052843</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="D8" t="n">
-        <v>778.251730446093</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="E8" t="n">
-        <v>778.251730446093</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2658256564855</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6243878970215</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2447.393957985361</v>
+        <v>2462.313931837014</v>
       </c>
       <c r="U8" t="n">
-        <v>2193.814729927608</v>
+        <v>2462.313931837014</v>
       </c>
       <c r="V8" t="n">
-        <v>1862.751842584037</v>
+        <v>2462.313931837014</v>
       </c>
       <c r="W8" t="n">
-        <v>1509.983187313923</v>
+        <v>2462.313931837014</v>
       </c>
       <c r="X8" t="n">
-        <v>1136.517429052843</v>
+        <v>2088.848173575934</v>
       </c>
       <c r="Y8" t="n">
-        <v>1136.517429052843</v>
+        <v>1698.708841600123</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128335</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>853.4779730237872</v>
+        <v>599.2586963421436</v>
       </c>
       <c r="M9" t="n">
-        <v>1219.783862516113</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N9" t="n">
-        <v>1860.807072136007</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1735.297176690877</v>
+        <v>353.6862513653483</v>
       </c>
       <c r="C10" t="n">
-        <v>1566.36099376297</v>
+        <v>353.6862513653483</v>
       </c>
       <c r="D10" t="n">
-        <v>1416.244354350634</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E10" t="n">
-        <v>1268.331260768241</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>1268.331260768241</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>1100.35507203013</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>1100.35507203013</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>994.8089513099274</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>1020.990176667913</v>
+        <v>77.9810806808055</v>
       </c>
       <c r="K10" t="n">
-        <v>1193.850809199305</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>1470.579339609652</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>1772.73989781885</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
-        <v>2073.150369737741</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>2334.611767884207</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>2534.816480621918</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>2589.992766140986</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>2589.992766140986</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>2589.992766140986</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>2367.058191682967</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>2367.058191682967</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="V10" t="n">
-        <v>2365.727771562664</v>
+        <v>581.6758022633657</v>
       </c>
       <c r="W10" t="n">
-        <v>2365.727771562664</v>
+        <v>581.6758022633657</v>
       </c>
       <c r="X10" t="n">
-        <v>2137.738220664647</v>
+        <v>353.6862513653483</v>
       </c>
       <c r="Y10" t="n">
-        <v>1916.945641521116</v>
+        <v>353.6862513653483</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555045</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614633</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.196732007883</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.408479409639</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
         <v>793.22209597083</v>
@@ -5033,16 +5033,16 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L11" t="n">
         <v>1461.457663018651</v>
@@ -5060,31 +5060,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469744</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.398533126173</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
         <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594979</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619167</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608054</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608054</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L12" t="n">
-        <v>141.6400447072585</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>733.6583989593863</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N12" t="n">
-        <v>1355.754362358723</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.2349062807025</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>762.2349062807025</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D13" t="n">
-        <v>612.1182668683667</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E13" t="n">
-        <v>464.2051732859736</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F13" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
         <v>171.7937461156345</v>
@@ -5224,25 +5224,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.516429368669</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2225.84337308061</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1936.767159395337</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1682.08267118945</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1392.66550115249</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1164.675950254472</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>943.8833711109422</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5270,31 +5270,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>591.7265122257528</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>591.7265122257528</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>444.8365647278424</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>277.6404654427224</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>135.9286342849204</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>633.992644467965</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556292</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1654.485273605118</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2206.395003844405</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>986.1256051221279</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C22" t="n">
-        <v>817.189422194221</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D22" t="n">
-        <v>667.0727827818853</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E22" t="n">
-        <v>519.1596891994933</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="F22" t="n">
-        <v>372.2697417015829</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="G22" t="n">
-        <v>205.0736424164629</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1388.566649095898</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y22" t="n">
-        <v>1167.774069952368</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>417.9651836029407</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898186995</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1424.971336346703</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.178757203173</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782941</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179773</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855602</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.2406881998</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993913</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058935</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>449.485266605716</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>449.485266605716</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>302.5953191078056</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>710.248605371872</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695815</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>516.3896878871884</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>369.499740389278</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>202.303641104158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7017,22 +7017,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1922.614765620015</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1667.930277414128</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1150.52355647915</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7181,13 +7181,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7257,10 +7257,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,7 +7427,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2389.155899672379</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1963.123159128057</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1708.43867092217</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1419.02150088521</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>161.1353902319293</v>
+        <v>360.2919261714491</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>369.603020508343</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>207.9407978764911</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660687</v>
       </c>
       <c r="N3" t="n">
-        <v>359.282160794506</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>77.94487360085009</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177569</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1450992870219</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>256.7871481632766</v>
+        <v>162.7491560325415</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>130.6961128228677</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>274.5176649421942</v>
       </c>
       <c r="N9" t="n">
-        <v>253.1450992870219</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.011347179818479e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.409251111844135e-12</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>83.00833657259891</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>146.8122831769372</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>143.0245164036996</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.29152613728996</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>50.29152613729087</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.06136363537664</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>84.15566873758397</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>19.50758019582707</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.57498479398646</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>66.0940651974812</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.3683537222893</v>
       </c>
       <c r="H22" t="n">
-        <v>111.4161395899833</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.37549921168744</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.149163315743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G31" t="n">
-        <v>40.09910511159896</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>32.89260457059963</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>231.8866226476554</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>132.6809716109911</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>144.8013425629422</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>205.614685510496</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>972338.7267131214</v>
+        <v>972338.7267131215</v>
       </c>
     </row>
     <row r="3">
@@ -26314,40 +26314,40 @@
         <v>375475.6212503242</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190152</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
         <v>403573.2998450032</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="I2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.299845003</v>
       </c>
       <c r="J2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="L2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="L2" t="n">
-        <v>403573.2998450032</v>
       </c>
       <c r="M2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="O2" t="n">
         <v>403573.2998450031</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753987</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,13 +26375,13 @@
         <v>489156.4647573811</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504116</v>
+        <v>11452.26311504109</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>127753.7076070524</v>
+        <v>127753.7076070527</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.01735570473</v>
+        <v>3077.017355704674</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119780.4734867864</v>
+        <v>119780.4734867869</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6280.9479104697</v>
@@ -26430,22 +26430,22 @@
         <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695058</v>
       </c>
       <c r="H4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="I4" t="n">
-        <v>6287.480531695024</v>
-      </c>
       <c r="J4" t="n">
-        <v>6287.480531695024</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695042</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695051</v>
@@ -26454,10 +26454,10 @@
         <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-773332.8630088518</v>
+        <v>-773508.0893272584</v>
       </c>
       <c r="C6" t="n">
-        <v>15208.68105549173</v>
+        <v>15208.68105548908</v>
       </c>
       <c r="D6" t="n">
-        <v>187973.0408453841</v>
+        <v>187973.0408453843</v>
       </c>
       <c r="E6" t="n">
-        <v>-194239.655362674</v>
+        <v>-194285.5603582394</v>
       </c>
       <c r="F6" t="n">
-        <v>284711.0263743596</v>
+        <v>284676.2884489241</v>
       </c>
       <c r="G6" t="n">
-        <v>296163.289489401</v>
+        <v>296128.5515639653</v>
       </c>
       <c r="H6" t="n">
-        <v>296163.2894894007</v>
+        <v>296128.5515639653</v>
       </c>
       <c r="I6" t="n">
-        <v>296163.289489401</v>
+        <v>296128.5515639651</v>
       </c>
       <c r="J6" t="n">
-        <v>126749.2726633529</v>
+        <v>126714.5347379171</v>
       </c>
       <c r="K6" t="n">
-        <v>296163.2894894009</v>
+        <v>296128.551563965</v>
       </c>
       <c r="L6" t="n">
-        <v>296163.289489401</v>
+        <v>296128.5515639652</v>
       </c>
       <c r="M6" t="n">
-        <v>168409.5818823485</v>
+        <v>168374.8439569125</v>
       </c>
       <c r="N6" t="n">
-        <v>293086.2721336961</v>
+        <v>293051.5342082606</v>
       </c>
       <c r="O6" t="n">
-        <v>296163.2894894009</v>
+        <v>296128.5515639652</v>
       </c>
       <c r="P6" t="n">
-        <v>296163.289489401</v>
+        <v>296128.5515639653</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>418.3346580665414</v>
+        <v>418.3346580665412</v>
       </c>
       <c r="F3" t="n">
         <v>9.93445162528792</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>512.6470987907602</v>
+        <v>512.6470987907604</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>512.6470987907602</v>
+        <v>512.6470987907604</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>512.6470987907602</v>
+        <v>512.6470987907604</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>294.5479716573009</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>184.6584288817908</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>117.1955049559109</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>48.94344128752252</v>
       </c>
       <c r="I5" t="n">
-        <v>9.946825329107391</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>110.2156002676167</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.9344564646923</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>65.38608587169179</v>
+        <v>203.0922687592813</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>141.6029516056095</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>250.8205274047278</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31525,37 +31525,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31619,19 +31619,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31677,25 +31677,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,19 +31835,19 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>197.8673674492839</v>
       </c>
       <c r="N12" t="n">
         <v>759.7214730927639</v>
@@ -31856,13 +31856,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>211.5147800288493</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,22 +32789,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>312.3207226334973</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>626.4629682828346</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>270.97169333569</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33737,25 +33737,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33977,13 +33977,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,7 +34220,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>268.5330199802463</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34448,19 +34448,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>74.84835158000254</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>401.1584015634364</v>
+        <v>600.3149375029543</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352465</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>419.6487506571285</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352465</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>319.16199658212</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.93752551686885</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34954,7 +34954,7 @@
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342486</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
         <v>21.71629760961983</v>
@@ -35018,16 +35018,16 @@
         <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>647.4981915352465</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>595.0989468658332</v>
+        <v>501.0609547350981</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K9" t="n">
         <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>431.0112129403573</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>644.5236139243411</v>
       </c>
       <c r="N9" t="n">
-        <v>647.4981915352465</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225504</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,10 +35337,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35349,7 +35349,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>49.32163785977576</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>55.73333352726556</v>
       </c>
       <c r="N12" t="n">
         <v>628.3797610094306</v>
@@ -35504,13 +35504,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>77.5403726145191</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>174.4792836591384</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>483.8667238383902</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295172</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>132.4173135558158</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37385,25 +37385,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>134.2025531565913</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,7 +37868,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.5512458942248</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38096,19 +38096,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
